--- a/Data/London_SES_data.xlsx
+++ b/Data/London_SES_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxsc\OneDrive\Desktop\Repo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6271EBBF-1D5F-46AE-A45C-8C9C4E0FA406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BACECF6-6F66-4C28-9659-8FF7912B01BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{79163AD3-1606-4ECB-BAC9-2F1C9457D574}"/>
   </bookViews>
@@ -157,7 +157,7 @@
     <t>Borough</t>
   </si>
   <si>
-    <t>Information on infant mortality and measure of overcrowding for the Boroughs of London, between 1900 and 1917, as collected from the Medical Officer for Health Reports. Used with permission.</t>
+    <t>This file contains information on infant mortality and measure of overcrowding for the Boroughs of London, between 1900 and 1917, as collected from the Medical Officer for Health Reports. All data refer to averages over available data. For more details, see the description in the supplementary material accompanying the main article. We are grateful to Siqi Qiao for providing us with the data. Used with permission.</t>
   </si>
 </sst>
 </file>
@@ -557,14 +557,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2A0E65-518C-4D86-A83E-AB3102A8EC9C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I4:I9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="150" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>39</v>
       </c>

--- a/Data/London_SES_data.xlsx
+++ b/Data/London_SES_data.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxsc\OneDrive\Desktop\Repo\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Schroeder-et-al.--2023----An-extended-period-of-elevated-influenza-mortality-risk-follows-the-main-waves-of-influenza-pandemics\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BACECF6-6F66-4C28-9659-8FF7912B01BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F731D008-BE48-4C07-A507-E95A8AA046F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{79163AD3-1606-4ECB-BAC9-2F1C9457D574}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{79163AD3-1606-4ECB-BAC9-2F1C9457D574}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data Dictionary" sheetId="3" r:id="rId1"/>
-    <sheet name="Variable descriptions" sheetId="2" r:id="rId2"/>
+    <sheet name="Information" sheetId="3" r:id="rId1"/>
+    <sheet name="Data Dictionary" sheetId="2" r:id="rId2"/>
     <sheet name="SES Data" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -157,7 +157,7 @@
     <t>Borough</t>
   </si>
   <si>
-    <t>This file contains information on infant mortality and measure of overcrowding for the Boroughs of London, between 1900 and 1917, as collected from the Medical Officer for Health Reports. All data refer to averages over available data. For more details, see the description in the supplementary material accompanying the main article. We are grateful to Siqi Qiao for providing us with the data. Used with permission.</t>
+    <t>This file contains information on infant mortality and measure of overcrowding for the Boroughs of London, averaged over the years 1900 - 1917, as collected from the Medical Officer for Health Reports and other sources. For more details, see the description in Section A.5 of the Supplementary Information accompanying the main article. We are grateful to Siqi Qiao for providing us with the data. Used with permission.</t>
   </si>
 </sst>
 </file>
@@ -557,9 +557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2A0E65-518C-4D86-A83E-AB3102A8EC9C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I4:I9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -581,7 +579,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,11 +631,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424247D9-56CC-430A-9B59-AFE32DB434D1}">
   <dimension ref="A1:J552"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/London_SES_data.xlsx
+++ b/Data/London_SES_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Schroeder-et-al.--2023----An-extended-period-of-elevated-influenza-mortality-risk-follows-the-main-waves-of-influenza-pandemics\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F731D008-BE48-4C07-A507-E95A8AA046F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7863EFD2-F512-42FC-AC9F-7540D2346E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{79163AD3-1606-4ECB-BAC9-2F1C9457D574}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{79163AD3-1606-4ECB-BAC9-2F1C9457D574}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Battersea</t>
   </si>
@@ -158,13 +158,16 @@
   </si>
   <si>
     <t>This file contains information on infant mortality and measure of overcrowding for the Boroughs of London, averaged over the years 1900 - 1917, as collected from the Medical Officer for Health Reports and other sources. For more details, see the description in Section A.5 of the Supplementary Information accompanying the main article. We are grateful to Siqi Qiao for providing us with the data. Used with permission.</t>
+  </si>
+  <si>
+    <t>This Excel file contains the data for the additional analysis for London used in this study.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +203,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -227,7 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -240,6 +251,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
@@ -555,17 +569,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2A0E65-518C-4D86-A83E-AB3102A8EC9C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -631,7 +650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424247D9-56CC-430A-9B59-AFE32DB434D1}">
   <dimension ref="A1:J552"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/Data/London_SES_data.xlsx
+++ b/Data/London_SES_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Schroeder-et-al.--2023----An-extended-period-of-elevated-influenza-mortality-risk-follows-the-main-waves-of-influenza-pandemics\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7863EFD2-F512-42FC-AC9F-7540D2346E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E87D5AE-19D3-4789-8864-B24B13387E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{79163AD3-1606-4ECB-BAC9-2F1C9457D574}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{79163AD3-1606-4ECB-BAC9-2F1C9457D574}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="3" r:id="rId1"/>
@@ -151,16 +151,19 @@
     <t>proportion of people living in small tenements with more than 2 occupants per room to the population</t>
   </si>
   <si>
-    <t>(Derived) OC_pesmteoc divided by pop_census</t>
-  </si>
-  <si>
     <t>Borough</t>
   </si>
   <si>
-    <t>This file contains information on infant mortality and measure of overcrowding for the Boroughs of London, averaged over the years 1900 - 1917, as collected from the Medical Officer for Health Reports and other sources. For more details, see the description in Section A.5 of the Supplementary Information accompanying the main article. We are grateful to Siqi Qiao for providing us with the data. Used with permission.</t>
-  </si>
-  <si>
     <t>This Excel file contains the data for the additional analysis for London used in this study.</t>
+  </si>
+  <si>
+    <t>This file contains information on infant mortality and measure of overcrowding for the Boroughs of London, averaged over the years 1900 - 1917, as collected from the Medical Officer for Health Reports, MOH reports (1901), the census report (1911) and the “The New Survey” (1921). For more details, see the description in Section A.5 of the Supplementary Information accompanying the main article. We are grateful to Siqi Qiao for providing us with the data. Used with permission.</t>
+  </si>
+  <si>
+    <t>Derived measure based on: 1. 1891 (sheet 1, sanitary area): 1892 MOH Report, P4-7; 1891 (sheet 2, Met. B.): The New Survey Vol I, P162-163
+2. 1901: 1901 MOH Report, P2-6
+3. 1911: 1911 Census, Report 12 , Pxviii
+4. 1921: The New Survey Vol I, P162-163</t>
   </si>
 </sst>
 </file>
@@ -571,7 +574,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2A0E65-518C-4D86-A83E-AB3102A8EC9C}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -580,10 +585,10 @@
   <sheetData>
     <row r="1" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
@@ -597,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F197C40B-C3FC-432B-BC0F-C00533FBC835}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +635,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -638,7 +643,7 @@
         <v>36</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -672,7 +677,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>29</v>

--- a/Data/London_SES_data.xlsx
+++ b/Data/London_SES_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Schroeder-et-al.--2023----An-extended-period-of-elevated-influenza-mortality-risk-follows-the-main-waves-of-influenza-pandemics\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebeccamancy/Developer/Schroeder-et-al.--2023----Elevated-influenza-mortality-risk/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E87D5AE-19D3-4789-8864-B24B13387E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDA9991-C4EB-A94A-9429-393CDD5509FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{79163AD3-1606-4ECB-BAC9-2F1C9457D574}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16680" windowHeight="14880" xr2:uid="{79163AD3-1606-4ECB-BAC9-2F1C9457D574}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="3" r:id="rId1"/>
@@ -142,9 +142,6 @@
     <t>Source</t>
   </si>
   <si>
-    <t>LCC MOH reports</t>
-  </si>
-  <si>
     <t>OC_pesmteoc_pro_D</t>
   </si>
   <si>
@@ -155,15 +152,18 @@
   </si>
   <si>
     <t>This Excel file contains the data for the additional analysis for London used in this study.</t>
-  </si>
-  <si>
-    <t>This file contains information on infant mortality and measure of overcrowding for the Boroughs of London, averaged over the years 1900 - 1917, as collected from the Medical Officer for Health Reports, MOH reports (1901), the census report (1911) and the “The New Survey” (1921). For more details, see the description in Section A.5 of the Supplementary Information accompanying the main article. We are grateful to Siqi Qiao for providing us with the data. Used with permission.</t>
   </si>
   <si>
     <t>Derived measure based on: 1. 1891 (sheet 1, sanitary area): 1892 MOH Report, P4-7; 1891 (sheet 2, Met. B.): The New Survey Vol I, P162-163
 2. 1901: 1901 MOH Report, P2-6
 3. 1911: 1911 Census, Report 12 , Pxviii
 4. 1921: The New Survey Vol I, P162-163</t>
+  </si>
+  <si>
+    <t>This file contains information on infant mortality and a measure of overcrowding for the Boroughs of London, averaged over the years 1900 - 1917, as collected from the Medical Officer for Health Reports, MOH reports (1901), the census report (1911) and the “The New Survey” (1921). For more details, see the description in Section A.5 of the Supplementary Information accompanying the main article. We are grateful to Siqi Qiao for providing us with the data. Used with permission.</t>
+  </si>
+  <si>
+    <t>London County Council MOH reports</t>
   </si>
 </sst>
 </file>
@@ -574,21 +574,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2A0E65-518C-4D86-A83E-AB3102A8EC9C}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="1" max="1" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="180" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
@@ -602,18 +602,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F197C40B-C3FC-432B-BC0F-C00533FBC835}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="45" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -624,7 +624,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -632,18 +632,18 @@
         <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -662,35 +662,35 @@
       <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -701,7 +701,7 @@
         <v>11.543753000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -712,7 +712,7 @@
         <v>20.465146000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -723,7 +723,7 @@
         <v>30.169319999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -734,7 +734,7 @@
         <v>10.953713</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -745,7 +745,7 @@
         <v>13.684979</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -756,7 +756,7 @@
         <v>10.072511</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -767,7 +767,7 @@
         <v>36.664991999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -778,7 +778,7 @@
         <v>12.175304000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -789,7 +789,7 @@
         <v>9.3801626000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -800,7 +800,7 @@
         <v>10.672487</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -811,7 +811,7 @@
         <v>12.191394000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -822,7 +822,7 @@
         <v>6.2966093000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -833,7 +833,7 @@
         <v>22.276274999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -844,7 +844,7 @@
         <v>17.748528</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -855,7 +855,7 @@
         <v>15.009772</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -866,7 +866,7 @@
         <v>12.230591</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -877,7 +877,7 @@
         <v>3.0014981999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -888,7 +888,7 @@
         <v>9.5551993</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -899,7 +899,7 @@
         <v>13.961009000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -910,7 +910,7 @@
         <v>17.457398000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -921,7 +921,7 @@
         <v>32.046992000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -932,7 +932,7 @@
         <v>22.882560000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -943,7 +943,7 @@
         <v>19.483114</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -954,7 +954,7 @@
         <v>23.517634000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
@@ -965,7 +965,7 @@
         <v>32.478026</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -976,7 +976,7 @@
         <v>6.7932872</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -987,7 +987,7 @@
         <v>4.9099452000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -998,7 +998,7 @@
         <v>11.608900999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -1009,1564 +1009,1564 @@
         <v>5.7869856000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C82" s="1"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C140" s="1"/>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C141" s="1"/>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C142" s="1"/>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C143" s="1"/>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C144" s="1"/>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C145" s="1"/>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C146" s="1"/>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C147" s="1"/>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C148" s="1"/>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C149" s="1"/>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C150" s="1"/>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C151" s="1"/>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C152" s="1"/>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C153" s="1"/>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C154" s="1"/>
     </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C155" s="1"/>
     </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C156" s="1"/>
     </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C157" s="1"/>
     </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C158" s="1"/>
     </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C159" s="1"/>
     </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C160" s="1"/>
     </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C161" s="1"/>
     </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C162" s="1"/>
     </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C163" s="1"/>
     </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C164" s="1"/>
     </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C165" s="1"/>
     </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C166" s="1"/>
     </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C167" s="1"/>
     </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C168" s="1"/>
     </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C169" s="1"/>
     </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C170" s="1"/>
     </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C171" s="1"/>
     </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C172" s="1"/>
     </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C173" s="1"/>
     </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C174" s="1"/>
     </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C175" s="1"/>
     </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C176" s="1"/>
     </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C177" s="1"/>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C178" s="1"/>
     </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C179" s="1"/>
     </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C180" s="1"/>
     </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C181" s="1"/>
     </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C182" s="1"/>
     </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C183" s="1"/>
     </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C184" s="1"/>
     </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C185" s="1"/>
     </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C186" s="1"/>
     </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C187" s="1"/>
     </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C188" s="1"/>
     </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C189" s="1"/>
     </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C190" s="1"/>
     </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C191" s="1"/>
     </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C192" s="1"/>
     </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C193" s="1"/>
     </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C194" s="1"/>
     </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C195" s="1"/>
     </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C196" s="1"/>
     </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C197" s="1"/>
     </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C198" s="1"/>
     </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C199" s="1"/>
     </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C200" s="1"/>
     </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C201" s="1"/>
     </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C202" s="1"/>
     </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C203" s="1"/>
     </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C204" s="1"/>
     </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C205" s="1"/>
     </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C206" s="1"/>
     </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C207" s="1"/>
     </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C208" s="1"/>
     </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C209" s="1"/>
     </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C210" s="1"/>
     </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C211" s="1"/>
     </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C212" s="1"/>
     </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C214" s="1"/>
     </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C238" s="1"/>
     </row>
-    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C239" s="1"/>
     </row>
-    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C240" s="1"/>
     </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C241" s="1"/>
     </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C242" s="1"/>
     </row>
-    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C243" s="1"/>
     </row>
-    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C244" s="1"/>
     </row>
-    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C245" s="1"/>
     </row>
-    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C246" s="1"/>
     </row>
-    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C247" s="1"/>
     </row>
-    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C248" s="1"/>
     </row>
-    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C249" s="1"/>
     </row>
-    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C250" s="1"/>
     </row>
-    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C251" s="1"/>
     </row>
-    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C252" s="1"/>
     </row>
-    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C253" s="1"/>
     </row>
-    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C254" s="1"/>
     </row>
-    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C255" s="1"/>
     </row>
-    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C256" s="1"/>
     </row>
-    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C257" s="1"/>
     </row>
-    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C258" s="1"/>
     </row>
-    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C259" s="1"/>
     </row>
-    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C260" s="1"/>
     </row>
-    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C261" s="1"/>
     </row>
-    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C262" s="1"/>
     </row>
-    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C263" s="1"/>
     </row>
-    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C264" s="1"/>
     </row>
-    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C265" s="1"/>
     </row>
-    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C266" s="1"/>
     </row>
-    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C267" s="1"/>
     </row>
-    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C268" s="1"/>
     </row>
-    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C269" s="1"/>
     </row>
-    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C270" s="1"/>
     </row>
-    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C271" s="1"/>
     </row>
-    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C272" s="1"/>
     </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C273" s="1"/>
     </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C274" s="1"/>
     </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C275" s="1"/>
     </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C276" s="1"/>
     </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C277" s="1"/>
     </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C278" s="1"/>
     </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C279" s="1"/>
     </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C280" s="1"/>
     </row>
-    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C281" s="1"/>
     </row>
-    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C282" s="1"/>
     </row>
-    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C283" s="1"/>
     </row>
-    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C284" s="1"/>
     </row>
-    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C285" s="1"/>
     </row>
-    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C286" s="1"/>
     </row>
-    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C287" s="1"/>
     </row>
-    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C288" s="1"/>
     </row>
-    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C289" s="1"/>
     </row>
-    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C290" s="1"/>
     </row>
-    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C291" s="1"/>
     </row>
-    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C292" s="1"/>
     </row>
-    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C293" s="1"/>
     </row>
-    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C294" s="1"/>
     </row>
-    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C295" s="1"/>
     </row>
-    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C296" s="1"/>
     </row>
-    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C297" s="1"/>
     </row>
-    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C298" s="1"/>
     </row>
-    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C299" s="1"/>
     </row>
-    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C300" s="1"/>
     </row>
-    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C301" s="1"/>
     </row>
-    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C302" s="1"/>
     </row>
-    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C303" s="1"/>
     </row>
-    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C304" s="1"/>
     </row>
-    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C305" s="1"/>
     </row>
-    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C306" s="1"/>
     </row>
-    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C307" s="1"/>
     </row>
-    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C308" s="1"/>
     </row>
-    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C309" s="1"/>
     </row>
-    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C310" s="1"/>
     </row>
-    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C311" s="1"/>
     </row>
-    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C312" s="1"/>
     </row>
-    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C313" s="1"/>
     </row>
-    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C314" s="1"/>
     </row>
-    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C315" s="1"/>
     </row>
-    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C316" s="1"/>
     </row>
-    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C317" s="1"/>
     </row>
-    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C318" s="1"/>
     </row>
-    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C319" s="1"/>
     </row>
-    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C320" s="1"/>
     </row>
-    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C321" s="1"/>
     </row>
-    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C322" s="1"/>
     </row>
-    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C323" s="1"/>
     </row>
-    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C324" s="1"/>
     </row>
-    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C325" s="1"/>
     </row>
-    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C326" s="1"/>
     </row>
-    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C327" s="1"/>
     </row>
-    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C328" s="1"/>
     </row>
-    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C329" s="1"/>
     </row>
-    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C330" s="1"/>
     </row>
-    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C331" s="1"/>
     </row>
-    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C332" s="1"/>
     </row>
-    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C333" s="1"/>
     </row>
-    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C334" s="1"/>
     </row>
-    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C335" s="1"/>
     </row>
-    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C336" s="1"/>
     </row>
-    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C337" s="1"/>
     </row>
-    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C338" s="1"/>
     </row>
-    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C339" s="1"/>
     </row>
-    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C340" s="1"/>
     </row>
-    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C341" s="1"/>
     </row>
-    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C342" s="1"/>
     </row>
-    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C343" s="1"/>
     </row>
-    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C344" s="1"/>
     </row>
-    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C345" s="1"/>
     </row>
-    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C346" s="1"/>
     </row>
-    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C347" s="1"/>
     </row>
-    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C348" s="1"/>
     </row>
-    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C349" s="1"/>
     </row>
-    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C350" s="1"/>
     </row>
-    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C351" s="1"/>
     </row>
-    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C352" s="1"/>
     </row>
-    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C353" s="1"/>
     </row>
-    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C354" s="1"/>
     </row>
-    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C355" s="1"/>
     </row>
-    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C356" s="1"/>
     </row>
-    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C357" s="1"/>
     </row>
-    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C358" s="1"/>
     </row>
-    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C359" s="1"/>
     </row>
-    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C360" s="1"/>
     </row>
-    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C361" s="1"/>
     </row>
-    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C362" s="1"/>
     </row>
-    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C363" s="1"/>
     </row>
-    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C364" s="1"/>
     </row>
-    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C365" s="1"/>
     </row>
-    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C366" s="1"/>
     </row>
-    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C367" s="1"/>
     </row>
-    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C368" s="1"/>
     </row>
-    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C369" s="1"/>
     </row>
-    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C370" s="1"/>
     </row>
-    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C371" s="1"/>
     </row>
-    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C372" s="1"/>
     </row>
-    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C373" s="1"/>
     </row>
-    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C374" s="1"/>
     </row>
-    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C375" s="1"/>
     </row>
-    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C376" s="1"/>
     </row>
-    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C377" s="1"/>
     </row>
-    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C378" s="1"/>
     </row>
-    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C379" s="1"/>
     </row>
-    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C380" s="1"/>
     </row>
-    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C381" s="1"/>
     </row>
-    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C382" s="1"/>
     </row>
-    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C383" s="1"/>
     </row>
-    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C384" s="1"/>
     </row>
-    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C385" s="1"/>
     </row>
-    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C386" s="1"/>
     </row>
-    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C387" s="1"/>
     </row>
-    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C388" s="1"/>
     </row>
-    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C389" s="1"/>
     </row>
-    <row r="390" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C390" s="1"/>
     </row>
-    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C391" s="1"/>
     </row>
-    <row r="392" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C392" s="1"/>
     </row>
-    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C393" s="1"/>
     </row>
-    <row r="394" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C394" s="1"/>
     </row>
-    <row r="395" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C395" s="1"/>
     </row>
-    <row r="396" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C396" s="1"/>
     </row>
-    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C397" s="1"/>
     </row>
-    <row r="398" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C398" s="1"/>
     </row>
-    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C399" s="1"/>
     </row>
-    <row r="400" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C400" s="1"/>
     </row>
-    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C401" s="1"/>
     </row>
-    <row r="402" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C402" s="1"/>
     </row>
-    <row r="403" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C403" s="1"/>
     </row>
-    <row r="404" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C404" s="1"/>
     </row>
-    <row r="405" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C405" s="1"/>
     </row>
-    <row r="406" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C406" s="1"/>
     </row>
-    <row r="407" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C407" s="1"/>
     </row>
-    <row r="408" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C408" s="1"/>
     </row>
-    <row r="409" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C409" s="1"/>
     </row>
-    <row r="410" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C410" s="1"/>
     </row>
-    <row r="411" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C411" s="1"/>
     </row>
-    <row r="412" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C412" s="1"/>
     </row>
-    <row r="413" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C413" s="1"/>
     </row>
-    <row r="414" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C414" s="1"/>
     </row>
-    <row r="415" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C415" s="1"/>
     </row>
-    <row r="416" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C416" s="1"/>
     </row>
-    <row r="417" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C417" s="1"/>
     </row>
-    <row r="418" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C418" s="1"/>
     </row>
-    <row r="419" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C419" s="1"/>
     </row>
-    <row r="420" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C420" s="1"/>
     </row>
-    <row r="421" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C421" s="1"/>
     </row>
-    <row r="422" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C422" s="1"/>
     </row>
-    <row r="423" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C423" s="1"/>
     </row>
-    <row r="424" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C424" s="1"/>
     </row>
-    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C425" s="1"/>
     </row>
-    <row r="426" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C426" s="1"/>
     </row>
-    <row r="427" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C427" s="1"/>
     </row>
-    <row r="428" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C428" s="1"/>
     </row>
-    <row r="429" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C429" s="1"/>
     </row>
-    <row r="430" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C430" s="1"/>
     </row>
-    <row r="431" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C431" s="1"/>
     </row>
-    <row r="432" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C432" s="1"/>
     </row>
-    <row r="433" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C433" s="1"/>
     </row>
-    <row r="434" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C434" s="1"/>
     </row>
-    <row r="435" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C435" s="1"/>
     </row>
-    <row r="436" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C436" s="1"/>
     </row>
-    <row r="437" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C437" s="1"/>
     </row>
-    <row r="438" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C438" s="1"/>
     </row>
-    <row r="439" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C439" s="1"/>
     </row>
-    <row r="440" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C440" s="1"/>
     </row>
-    <row r="441" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C441" s="1"/>
     </row>
-    <row r="442" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C442" s="1"/>
     </row>
-    <row r="443" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C443" s="1"/>
     </row>
-    <row r="444" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C444" s="1"/>
     </row>
-    <row r="445" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C445" s="1"/>
     </row>
-    <row r="446" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C446" s="1"/>
     </row>
-    <row r="447" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C447" s="1"/>
     </row>
-    <row r="448" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C448" s="1"/>
     </row>
-    <row r="449" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C449" s="1"/>
     </row>
-    <row r="450" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C450" s="1"/>
     </row>
-    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C451" s="1"/>
     </row>
-    <row r="452" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C452" s="1"/>
     </row>
-    <row r="453" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C453" s="1"/>
     </row>
-    <row r="454" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C454" s="1"/>
     </row>
-    <row r="455" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C455" s="1"/>
     </row>
-    <row r="456" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C456" s="1"/>
     </row>
-    <row r="457" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C457" s="1"/>
     </row>
-    <row r="458" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C458" s="1"/>
     </row>
-    <row r="459" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C459" s="1"/>
     </row>
-    <row r="460" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C460" s="1"/>
     </row>
-    <row r="461" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C461" s="1"/>
     </row>
-    <row r="462" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C462" s="1"/>
     </row>
-    <row r="463" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C463" s="1"/>
     </row>
-    <row r="464" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C464" s="1"/>
     </row>
-    <row r="465" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C465" s="1"/>
     </row>
-    <row r="466" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C466" s="1"/>
     </row>
-    <row r="467" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C467" s="1"/>
     </row>
-    <row r="468" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C468" s="1"/>
     </row>
-    <row r="469" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C469" s="1"/>
     </row>
-    <row r="470" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C470" s="1"/>
     </row>
-    <row r="471" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C471" s="1"/>
     </row>
-    <row r="472" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C472" s="1"/>
     </row>
-    <row r="473" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C473" s="1"/>
     </row>
-    <row r="474" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C474" s="1"/>
     </row>
-    <row r="475" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C475" s="1"/>
     </row>
-    <row r="476" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C476" s="1"/>
     </row>
-    <row r="477" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C477" s="1"/>
     </row>
-    <row r="478" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C478" s="1"/>
     </row>
-    <row r="479" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C479" s="1"/>
     </row>
-    <row r="480" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C480" s="1"/>
     </row>
-    <row r="481" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C481" s="1"/>
     </row>
-    <row r="482" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C482" s="1"/>
     </row>
-    <row r="483" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C483" s="1"/>
     </row>
-    <row r="484" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C484" s="1"/>
     </row>
-    <row r="485" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C485" s="1"/>
     </row>
-    <row r="486" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C486" s="1"/>
     </row>
-    <row r="487" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C487" s="1"/>
     </row>
-    <row r="488" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C488" s="1"/>
     </row>
-    <row r="489" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C489" s="1"/>
     </row>
-    <row r="490" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C490" s="1"/>
     </row>
-    <row r="491" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C491" s="1"/>
     </row>
-    <row r="492" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C492" s="1"/>
     </row>
-    <row r="493" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C493" s="1"/>
     </row>
-    <row r="494" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C494" s="1"/>
     </row>
-    <row r="495" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C495" s="1"/>
     </row>
-    <row r="496" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C496" s="1"/>
     </row>
-    <row r="497" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C497" s="1"/>
     </row>
-    <row r="498" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C498" s="1"/>
     </row>
-    <row r="499" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C499" s="1"/>
     </row>
-    <row r="500" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C500" s="1"/>
     </row>
-    <row r="501" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C501" s="1"/>
     </row>
-    <row r="502" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C502" s="1"/>
     </row>
-    <row r="503" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C503" s="1"/>
     </row>
-    <row r="504" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C504" s="1"/>
     </row>
-    <row r="505" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C505" s="1"/>
     </row>
-    <row r="506" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C506" s="1"/>
     </row>
-    <row r="507" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C507" s="1"/>
     </row>
-    <row r="508" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C508" s="1"/>
     </row>
-    <row r="509" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C509" s="1"/>
     </row>
-    <row r="510" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C510" s="1"/>
     </row>
-    <row r="511" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C511" s="1"/>
     </row>
-    <row r="512" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C512" s="1"/>
     </row>
-    <row r="513" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C513" s="1"/>
     </row>
-    <row r="514" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C514" s="1"/>
     </row>
-    <row r="515" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C515" s="1"/>
     </row>
-    <row r="516" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C516" s="1"/>
     </row>
-    <row r="517" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C517" s="1"/>
     </row>
-    <row r="518" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C518" s="1"/>
     </row>
-    <row r="519" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C519" s="1"/>
     </row>
-    <row r="520" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C520" s="1"/>
     </row>
-    <row r="521" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C521" s="1"/>
     </row>
-    <row r="522" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C522" s="1"/>
     </row>
-    <row r="523" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C523" s="1"/>
     </row>
-    <row r="524" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C524" s="1"/>
     </row>
-    <row r="525" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C525" s="1"/>
     </row>
-    <row r="526" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C526" s="1"/>
     </row>
-    <row r="527" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C527" s="1"/>
     </row>
-    <row r="528" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C528" s="1"/>
     </row>
-    <row r="529" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C529" s="1"/>
     </row>
-    <row r="530" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C530" s="1"/>
     </row>
-    <row r="531" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C531" s="1"/>
     </row>
-    <row r="532" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C532" s="1"/>
     </row>
-    <row r="533" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C533" s="1"/>
     </row>
-    <row r="534" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C534" s="1"/>
     </row>
-    <row r="535" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C535" s="1"/>
     </row>
-    <row r="536" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C536" s="1"/>
     </row>
-    <row r="537" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C537" s="1"/>
     </row>
-    <row r="538" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C538" s="1"/>
     </row>
-    <row r="539" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C539" s="1"/>
     </row>
-    <row r="540" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C540" s="1"/>
     </row>
-    <row r="541" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C541" s="1"/>
     </row>
-    <row r="542" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C542" s="1"/>
     </row>
-    <row r="543" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C543" s="1"/>
     </row>
-    <row r="544" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C544" s="1"/>
     </row>
-    <row r="545" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C545" s="1"/>
     </row>
-    <row r="546" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C546" s="1"/>
     </row>
-    <row r="547" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C547" s="1"/>
     </row>
-    <row r="548" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C548" s="1"/>
     </row>
-    <row r="549" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C549" s="1"/>
     </row>
-    <row r="550" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C550" s="1"/>
     </row>
-    <row r="551" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C551" s="1"/>
     </row>
-    <row r="552" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C552" s="1"/>
     </row>
   </sheetData>
